--- a/Dev/Files/Siebel Service/DataBank_Service.xlsx
+++ b/Dev/Files/Siebel Service/DataBank_Service.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanumolu\Documents\QSTAFGdrive\VDI 1\ITAF\ITAFRepo\Dev\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanumolu\Documents\QSTAFGdrive\VDI 1\ITAF\ITAFRepo\Dev\Files\Siebel Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="DataBank_Service_New_New_11JUL2" sheetId="1" r:id="rId1"/>
+    <sheet name="DataBank" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="235">
   <si>
     <t>TC_ID</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>joykknph@sharklasers.com</t>
+  </si>
+  <si>
+    <t>if</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1533,7 @@
   <dimension ref="A1:BA88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2253,7 +2256,7 @@
         <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
         <v>114</v>
